--- a/gpts1995-2020.xlsx
+++ b/gpts1995-2020.xlsx
@@ -1,53 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgarc\OneDrive - Universitat de Barcelona\gpts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgarc\OneDrive - Universitat de Barcelona\GitHub\Geol-Time-Scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB53CE9E-9306-4C1A-9BB6-56C4CCB231A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{AB53CE9E-9306-4C1A-9BB6-56C4CCB231A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E60B890-3CF5-416D-ACDF-48CEAB9CB403}"/>
   <bookViews>
-    <workbookView xWindow="3786" yWindow="2826" windowWidth="14400" windowHeight="7374" activeTab="1" xr2:uid="{BC2A867A-B840-431F-9544-16320BBF6035}"/>
+    <workbookView xWindow="3786" yWindow="2826" windowWidth="14400" windowHeight="7374" xr2:uid="{BC2A867A-B840-431F-9544-16320BBF6035}"/>
   </bookViews>
   <sheets>
     <sheet name="gpts" sheetId="1" r:id="rId1"/>
     <sheet name="chronostratigraphy" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="bbib106" localSheetId="0">gpts!$H$153</definedName>
-    <definedName name="bbib109" localSheetId="0">gpts!$H$172</definedName>
-    <definedName name="bbib127" localSheetId="0">gpts!$H$155</definedName>
-    <definedName name="bbib152" localSheetId="0">gpts!$H$168</definedName>
-    <definedName name="bbib2001" localSheetId="0">gpts!$H$26</definedName>
-    <definedName name="bbib2002" localSheetId="0">gpts!$H$74</definedName>
-    <definedName name="bbib208" localSheetId="0">gpts!$H$87</definedName>
-    <definedName name="bbib23" localSheetId="0">gpts!$H$101</definedName>
-    <definedName name="bbib364" localSheetId="0">gpts!$H$152</definedName>
-    <definedName name="bbib365" localSheetId="0">gpts!$H$131</definedName>
+    <definedName name="bbib106" localSheetId="0">gpts!$I$153</definedName>
+    <definedName name="bbib109" localSheetId="0">gpts!$I$172</definedName>
+    <definedName name="bbib127" localSheetId="0">gpts!$I$155</definedName>
+    <definedName name="bbib152" localSheetId="0">gpts!$I$168</definedName>
+    <definedName name="bbib2001" localSheetId="0">gpts!$I$26</definedName>
+    <definedName name="bbib2002" localSheetId="0">gpts!$I$74</definedName>
+    <definedName name="bbib208" localSheetId="0">gpts!$I$87</definedName>
+    <definedName name="bbib23" localSheetId="0">gpts!$I$101</definedName>
+    <definedName name="bbib364" localSheetId="0">gpts!$I$152</definedName>
+    <definedName name="bbib365" localSheetId="0">gpts!$I$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="266">
   <si>
     <t>CK1995</t>
   </si>
@@ -842,6 +833,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>wes2020</t>
   </si>
 </sst>
 </file>
@@ -851,7 +845,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,6 +893,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -917,11 +949,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -933,9 +969,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -987,10 +1020,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="6">
+    <cellStyle name="Enllaç" xfId="1" builtinId="8"/>
+    <cellStyle name="Enllaç 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{CBBA5957-21A9-5B43-BBE5-91C3CD1E0B00}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Standard_U1334_Revised_Pmag" xfId="4" xr:uid="{132607F7-D67F-2349-BED4-D1FE527D3B60}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1006,9 +1055,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de l'Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Oficina">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1046,7 +1095,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Oficina">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1152,7 +1201,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Oficina">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1302,26 +1351,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F09CC6C-10E9-4383-AE14-E5C54F71E8E1}">
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C170" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.47265625" style="2" customWidth="1"/>
     <col min="3" max="6" width="8.83984375" style="2"/>
-    <col min="7" max="7" width="8.83984375" style="14"/>
-    <col min="8" max="8" width="47.26171875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="2"/>
+    <col min="7" max="8" width="8.83984375" style="13"/>
+    <col min="9" max="9" width="47.26171875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="16.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
@@ -1340,14 +1389,17 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="16.2" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3">
@@ -1362,12 +1414,15 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>0</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>179</v>
       </c>
@@ -1386,14 +1441,17 @@
       <c r="F3" s="3">
         <v>0.77300000000000002</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>0.77300000000000002</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="25">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="16.2" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>181</v>
       </c>
@@ -1412,12 +1470,15 @@
       <c r="F4" s="3">
         <v>1.008</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>1.008</v>
       </c>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="25">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.2" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>183</v>
       </c>
@@ -1436,12 +1497,15 @@
       <c r="F5" s="3">
         <v>1.0760000000000001</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>1.0760000000000001</v>
       </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="25">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.2" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1456,12 +1520,15 @@
       <c r="F6" s="3">
         <v>1.1890000000000001</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>1.1890000000000001</v>
       </c>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="25">
+        <v>1.173</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>185</v>
       </c>
@@ -1478,12 +1545,15 @@
       <c r="F7" s="3">
         <v>1.2210000000000001</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>1.2210000000000001</v>
       </c>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="25">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1500,12 +1570,15 @@
       <c r="F8" s="3">
         <v>1.7749999999999999</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>1.7749999999999999</v>
       </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="25">
+        <v>1.778</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.2" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>187</v>
       </c>
@@ -1524,12 +1597,15 @@
       <c r="F9" s="3">
         <v>1.9339999999999999</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>1.9339999999999999</v>
       </c>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="25">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1546,12 +1622,15 @@
       <c r="F10" s="3">
         <v>2.12</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>2.12</v>
       </c>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="25">
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>189</v>
       </c>
@@ -1570,12 +1649,15 @@
       <c r="F11" s="3">
         <v>2.1549999999999998</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>2.1549999999999998</v>
       </c>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="25">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>191</v>
       </c>
@@ -1594,12 +1676,15 @@
       <c r="F12" s="3">
         <v>2.61</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>2.61</v>
       </c>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="25">
+        <v>2.581</v>
+      </c>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.2" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>193</v>
       </c>
@@ -1618,14 +1703,17 @@
       <c r="F13" s="3">
         <v>3.032</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>3.032</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="25">
+        <v>3.032</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="16.2" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>195</v>
       </c>
@@ -1644,12 +1732,15 @@
       <c r="F14" s="3">
         <v>3.1160000000000001</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>3.1160000000000001</v>
       </c>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="25">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.2" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1666,12 +1757,15 @@
       <c r="F15" s="3">
         <v>3.2069999999999999</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>3.2069999999999999</v>
       </c>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="25">
+        <v>3.2069999999999999</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.2" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>197</v>
       </c>
@@ -1690,12 +1784,15 @@
       <c r="F16" s="3">
         <v>3.33</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>3.33</v>
       </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="25">
+        <v>3.33</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.2" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>199</v>
       </c>
@@ -1714,12 +1811,15 @@
       <c r="F17" s="3">
         <v>3.5960000000000001</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>3.5960000000000001</v>
       </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="25">
+        <v>3.5960000000000001</v>
+      </c>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>201</v>
       </c>
@@ -1738,12 +1838,15 @@
       <c r="F18" s="3">
         <v>4.1870000000000003</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>4.1870000000000003</v>
       </c>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="25">
+        <v>4.1870000000000003</v>
+      </c>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>203</v>
       </c>
@@ -1762,12 +1865,15 @@
       <c r="F19" s="3">
         <v>4.3</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>4.3</v>
       </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="25">
+        <v>4.3</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.2" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1784,12 +1890,15 @@
       <c r="F20" s="3">
         <v>4.4930000000000003</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>4.4930000000000003</v>
       </c>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="25">
+        <v>4.4930000000000003</v>
+      </c>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>205</v>
       </c>
@@ -1808,12 +1917,15 @@
       <c r="F21" s="3">
         <v>4.6310000000000002</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>4.6310000000000002</v>
       </c>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="25">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1830,12 +1942,15 @@
       <c r="F22" s="3">
         <v>4.7990000000000004</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>4.7990000000000004</v>
       </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="25">
+        <v>4.7990000000000004</v>
+      </c>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.2" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>207</v>
       </c>
@@ -1854,12 +1969,15 @@
       <c r="F23" s="3">
         <v>4.8959999999999999</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>4.8959999999999999</v>
       </c>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H23" s="25">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.2" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1876,12 +1994,15 @@
       <c r="F24" s="3">
         <v>4.9969999999999999</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>4.9969999999999999</v>
       </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H24" s="25">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.2" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>209</v>
       </c>
@@ -1900,12 +2021,15 @@
       <c r="F25" s="3">
         <v>5.2350000000000003</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>5.2350000000000003</v>
       </c>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H25" s="25">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.2" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>211</v>
       </c>
@@ -1924,14 +2048,17 @@
       <c r="F26" s="3">
         <v>6.0330000000000004</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>6.0229999999999997</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="25">
+        <v>6.0232153000000004</v>
+      </c>
+      <c r="I26" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" ht="16.2" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -1948,12 +2075,15 @@
       <c r="F27" s="3">
         <v>6.2519999999999998</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>6.2720000000000002</v>
       </c>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H27" s="25">
+        <v>6.2715712000000003</v>
+      </c>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1970,12 +2100,15 @@
       <c r="F28" s="3">
         <v>6.4359999999999999</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <v>6.3860000000000001</v>
       </c>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H28" s="25">
+        <v>6.3862686000000002</v>
+      </c>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.2" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -1992,12 +2125,15 @@
       <c r="F29" s="3">
         <v>6.7329999999999997</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <v>6.7270000000000003</v>
       </c>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29" s="25">
+        <v>6.7269706999999999</v>
+      </c>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
@@ -2014,12 +2150,15 @@
       <c r="F30" s="3">
         <v>7.14</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <v>7.1040000000000001</v>
       </c>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" s="25">
+        <v>7.1039915000000002</v>
+      </c>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.2" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -2036,12 +2175,15 @@
       <c r="F31" s="3">
         <v>7.2119999999999997</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <v>7.2140000000000004</v>
       </c>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H31" s="25">
+        <v>7.2137112999999999</v>
+      </c>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.2" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -2058,12 +2200,15 @@
       <c r="F32" s="3">
         <v>7.2510000000000003</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <v>7.2619999999999996</v>
       </c>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H32" s="25">
+        <v>7.2616639000000003</v>
+      </c>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.2" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -2080,12 +2225,15 @@
       <c r="F33" s="3">
         <v>7.2850000000000001</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <v>7.3049999999999997</v>
       </c>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H33" s="25">
+        <v>7.3046540999999996</v>
+      </c>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.2" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -2102,12 +2250,15 @@
       <c r="F34" s="3">
         <v>7.4539999999999997</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <v>7.4560000000000004</v>
       </c>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H34" s="25">
+        <v>7.4560636999999996</v>
+      </c>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.2" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
@@ -2124,12 +2275,15 @@
       <c r="F35" s="3">
         <v>7.4889999999999999</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <v>7.4989999999999997</v>
       </c>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H35" s="25">
+        <v>7.4988922999999996</v>
+      </c>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.2" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -2146,12 +2300,15 @@
       <c r="F36" s="3">
         <v>7.5279999999999996</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <v>7.5369999999999999</v>
       </c>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H36" s="25">
+        <v>7.5372095000000003</v>
+      </c>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.2" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -2168,12 +2325,15 @@
       <c r="F37" s="3">
         <v>7.6420000000000003</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <v>7.65</v>
       </c>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H37" s="25">
+        <v>7.6514163000000002</v>
+      </c>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.2" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
@@ -2190,12 +2350,15 @@
       <c r="F38" s="3">
         <v>7.6950000000000003</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <v>7.7009999999999996</v>
       </c>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H38" s="25">
+        <v>7.7010807999999997</v>
+      </c>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -2212,12 +2375,15 @@
       <c r="F39" s="3">
         <v>8.1080000000000005</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>8.125</v>
       </c>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H39" s="25">
+        <v>8.1072825999999996</v>
+      </c>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.2" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -2234,12 +2400,15 @@
       <c r="F40" s="3">
         <v>8.2539999999999996</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <v>8.2569999999999997</v>
       </c>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H40" s="25">
+        <v>8.2357492000000008</v>
+      </c>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.2" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -2256,14 +2425,17 @@
       <c r="F41" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="25">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I41" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" ht="16.2" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -2280,12 +2452,15 @@
       <c r="F42" s="3">
         <v>8.7710000000000008</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="11">
         <v>8.7710000000000008</v>
       </c>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H42" s="25">
+        <v>8.7710000000000008</v>
+      </c>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.2" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
@@ -2302,12 +2477,15 @@
       <c r="F43" s="3">
         <v>9.1050000000000004</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="11">
         <v>9.1050000000000004</v>
       </c>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H43" s="25">
+        <v>9.1050000000000004</v>
+      </c>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.2" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
@@ -2324,12 +2502,15 @@
       <c r="F44" s="3">
         <v>9.3109999999999999</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <v>9.3109999999999999</v>
       </c>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H44" s="25">
+        <v>9.3109999999999999</v>
+      </c>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.2" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
@@ -2346,12 +2527,15 @@
       <c r="F45" s="3">
         <v>9.4260000000000002</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <v>9.4260000000000002</v>
       </c>
-      <c r="H45" s="22"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H45" s="25">
+        <v>9.4260000000000002</v>
+      </c>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.2" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
@@ -2368,12 +2552,15 @@
       <c r="F46" s="3">
         <v>9.6470000000000002</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <v>9.6470000000000002</v>
       </c>
-      <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H46" s="25">
+        <v>9.6470000000000002</v>
+      </c>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.2" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
@@ -2390,12 +2577,15 @@
       <c r="F47" s="3">
         <v>9.7210000000000001</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="11">
         <v>9.7210000000000001</v>
       </c>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H47" s="25">
+        <v>9.7210000000000001</v>
+      </c>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
@@ -2412,12 +2602,15 @@
       <c r="F48" s="3">
         <v>9.7859999999999996</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <v>9.7859999999999996</v>
       </c>
-      <c r="H48" s="22"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="25">
+        <v>9.7859999999999996</v>
+      </c>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.2" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>38</v>
       </c>
@@ -2434,12 +2627,15 @@
       <c r="F49" s="3">
         <v>9.9369999999999994</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <v>9.9369999999999994</v>
       </c>
-      <c r="H49" s="22"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H49" s="25">
+        <v>9.9369999999999994</v>
+      </c>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.2" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
@@ -2456,12 +2652,15 @@
       <c r="F50" s="3">
         <v>9.984</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="11">
         <v>9.984</v>
       </c>
-      <c r="H50" s="22"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H50" s="25">
+        <v>9.984</v>
+      </c>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.2" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>40</v>
       </c>
@@ -2478,12 +2677,15 @@
       <c r="F51" s="3">
         <v>11.055999999999999</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>11.055999999999999</v>
       </c>
-      <c r="H51" s="22"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H51" s="25">
+        <v>11.055999999999999</v>
+      </c>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.2" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>41</v>
       </c>
@@ -2500,12 +2702,15 @@
       <c r="F52" s="3">
         <v>11.146000000000001</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="11">
         <v>11.146000000000001</v>
       </c>
-      <c r="H52" s="22"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H52" s="25">
+        <v>11.146000000000001</v>
+      </c>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.2" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
@@ -2522,12 +2727,15 @@
       <c r="F53" s="3">
         <v>11.188000000000001</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="11">
         <v>11.188000000000001</v>
       </c>
-      <c r="H53" s="22"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H53" s="25">
+        <v>11.188000000000001</v>
+      </c>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.2" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
@@ -2544,12 +2752,15 @@
       <c r="F54" s="3">
         <v>11.592000000000001</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <v>11.592000000000001</v>
       </c>
-      <c r="H54" s="22"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H54" s="25">
+        <v>11.592000000000001</v>
+      </c>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.2" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>44</v>
       </c>
@@ -2566,12 +2777,15 @@
       <c r="F55" s="3">
         <v>11.657</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <v>11.657</v>
       </c>
-      <c r="H55" s="22"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H55" s="25">
+        <v>11.657</v>
+      </c>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.2" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>45</v>
       </c>
@@ -2588,12 +2802,15 @@
       <c r="F56" s="3">
         <v>12.048999999999999</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <v>12.048999999999999</v>
       </c>
-      <c r="H56" s="22"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H56" s="25">
+        <v>12.048999999999999</v>
+      </c>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.2" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>46</v>
       </c>
@@ -2610,12 +2827,15 @@
       <c r="F57" s="3">
         <v>12.173999999999999</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <v>12.173999999999999</v>
       </c>
-      <c r="H57" s="22"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H57" s="25">
+        <v>12.173999999999999</v>
+      </c>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.2" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>47</v>
       </c>
@@ -2632,12 +2852,15 @@
       <c r="F58" s="3">
         <v>12.272</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <v>12.272</v>
       </c>
-      <c r="H58" s="22"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H58" s="25">
+        <v>12.272</v>
+      </c>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.2" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>48</v>
       </c>
@@ -2654,12 +2877,15 @@
       <c r="F59" s="3">
         <v>12.474</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <v>12.474</v>
       </c>
-      <c r="H59" s="22"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59" s="25">
+        <v>12.474</v>
+      </c>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.2" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>49</v>
       </c>
@@ -2676,12 +2902,15 @@
       <c r="F60" s="3">
         <v>12.734999999999999</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <v>12.734999999999999</v>
       </c>
-      <c r="H60" s="22"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H60" s="25">
+        <v>12.734999999999999</v>
+      </c>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.2" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>50</v>
       </c>
@@ -2698,12 +2927,15 @@
       <c r="F61" s="3">
         <v>12.77</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <v>12.77</v>
       </c>
-      <c r="H61" s="22"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H61" s="25">
+        <v>12.77</v>
+      </c>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.2" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>51</v>
       </c>
@@ -2720,12 +2952,15 @@
       <c r="F62" s="3">
         <v>12.829000000000001</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="11">
         <v>12.829000000000001</v>
       </c>
-      <c r="H62" s="22"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H62" s="25">
+        <v>12.829000000000001</v>
+      </c>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.2" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>52</v>
       </c>
@@ -2742,12 +2977,15 @@
       <c r="F63" s="3">
         <v>12.887</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <v>12.887</v>
       </c>
-      <c r="H63" s="22"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H63" s="25">
+        <v>12.887</v>
+      </c>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.2" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>53</v>
       </c>
@@ -2764,12 +3002,15 @@
       <c r="F64" s="3">
         <v>13.032</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <v>13.032</v>
       </c>
-      <c r="H64" s="22"/>
-    </row>
-    <row r="65" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H64" s="25">
+        <v>13.032</v>
+      </c>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.2" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>54</v>
       </c>
@@ -2786,12 +3027,15 @@
       <c r="F65" s="3">
         <v>13.183</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="11">
         <v>13.183</v>
       </c>
-      <c r="H65" s="22"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H65" s="25">
+        <v>13.183</v>
+      </c>
+      <c r="I65" s="23"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.2" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>55</v>
       </c>
@@ -2808,12 +3052,15 @@
       <c r="F66" s="3">
         <v>13.363</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="11">
         <v>13.363</v>
       </c>
-      <c r="H66" s="22"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H66" s="25">
+        <v>13.363</v>
+      </c>
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.2" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>56</v>
       </c>
@@ -2830,12 +3077,15 @@
       <c r="F67" s="3">
         <v>13.608000000000001</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="11">
         <v>13.608000000000001</v>
       </c>
-      <c r="H67" s="22"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H67" s="25">
+        <v>13.608000000000001</v>
+      </c>
+      <c r="I67" s="23"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.2" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>57</v>
       </c>
@@ -2852,12 +3102,15 @@
       <c r="F68" s="3">
         <v>13.739000000000001</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <v>13.739000000000001</v>
       </c>
-      <c r="H68" s="22"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H68" s="25">
+        <v>13.739000000000001</v>
+      </c>
+      <c r="I68" s="23"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.2" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>58</v>
       </c>
@@ -2874,12 +3127,15 @@
       <c r="F69" s="3">
         <v>14.07</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <v>14.07</v>
       </c>
-      <c r="H69" s="22"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H69" s="25">
+        <v>14.07</v>
+      </c>
+      <c r="I69" s="23"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.2" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>59</v>
       </c>
@@ -2896,12 +3152,15 @@
       <c r="F70" s="3">
         <v>14.163</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="11">
         <v>14.163</v>
       </c>
-      <c r="H70" s="22"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H70" s="25">
+        <v>14.163</v>
+      </c>
+      <c r="I70" s="23"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.2" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>60</v>
       </c>
@@ -2918,12 +3177,15 @@
       <c r="F71" s="3">
         <v>14.609</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="11">
         <v>14.609</v>
       </c>
-      <c r="H71" s="22"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H71" s="25">
+        <v>14.609</v>
+      </c>
+      <c r="I71" s="23"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.2" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>61</v>
       </c>
@@ -2940,12 +3202,15 @@
       <c r="F72" s="3">
         <v>14.775</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="11">
         <v>14.775</v>
       </c>
-      <c r="H72" s="22"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H72" s="25">
+        <v>14.775</v>
+      </c>
+      <c r="I72" s="23"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.2" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>62</v>
       </c>
@@ -2962,12 +3227,15 @@
       <c r="F73" s="3">
         <v>14.87</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <v>14.87</v>
       </c>
-      <c r="H73" s="22"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H73" s="25">
+        <v>14.87</v>
+      </c>
+      <c r="I73" s="23"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.2" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>63</v>
       </c>
@@ -2984,14 +3252,17 @@
       <c r="F74" s="3">
         <v>15.032</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="11">
         <v>15.04</v>
       </c>
-      <c r="H74" s="21" t="s">
+      <c r="H74" s="25">
+        <v>15.032</v>
+      </c>
+      <c r="I74" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" ht="16.2" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>65</v>
       </c>
@@ -3008,12 +3279,15 @@
       <c r="F75" s="3">
         <v>15.16</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="11">
         <v>15.186</v>
       </c>
-      <c r="H75" s="21"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H75" s="25">
+        <v>15.16</v>
+      </c>
+      <c r="I75" s="22"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.2" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>66</v>
       </c>
@@ -3030,12 +3304,15 @@
       <c r="F76" s="3">
         <v>15.974</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="11">
         <v>15.994</v>
       </c>
-      <c r="H76" s="21"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H76" s="25">
+        <v>15.974</v>
+      </c>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.2" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>67</v>
       </c>
@@ -3052,12 +3329,15 @@
       <c r="F77" s="3">
         <v>16.268000000000001</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="11">
         <v>16.260999999999999</v>
       </c>
-      <c r="H77" s="21"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H77" s="25">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="I77" s="22"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.2" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>68</v>
       </c>
@@ -3074,12 +3354,15 @@
       <c r="F78" s="3">
         <v>16.303000000000001</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="11">
         <v>16.350999999999999</v>
       </c>
-      <c r="H78" s="21"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H78" s="25">
+        <v>16.303000000000001</v>
+      </c>
+      <c r="I78" s="22"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.2" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>69</v>
       </c>
@@ -3096,12 +3379,15 @@
       <c r="F79" s="3">
         <v>16.472000000000001</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="11">
         <v>16.434000000000001</v>
       </c>
-      <c r="H79" s="21"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H79" s="25">
+        <v>16.472000000000001</v>
+      </c>
+      <c r="I79" s="22"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.2" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>70</v>
       </c>
@@ -3118,12 +3404,15 @@
       <c r="F80" s="3">
         <v>16.542999999999999</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="11">
         <v>16.532</v>
       </c>
-      <c r="H80" s="21"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H80" s="25">
+        <v>16.542999999999999</v>
+      </c>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" spans="1:9" ht="16.2" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>71</v>
       </c>
@@ -3140,12 +3429,15 @@
       <c r="F81" s="3">
         <v>16.721</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="11">
         <v>16.637</v>
       </c>
-      <c r="H81" s="21"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H81" s="25">
+        <v>16.721</v>
+      </c>
+      <c r="I81" s="22"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.2" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>72</v>
       </c>
@@ -3162,12 +3454,15 @@
       <c r="F82" s="3">
         <v>17.234999999999999</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <v>17.154</v>
       </c>
-      <c r="H82" s="21"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H82" s="25">
+        <v>17.234999999999999</v>
+      </c>
+      <c r="I82" s="22"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.2" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>73</v>
       </c>
@@ -3184,12 +3479,15 @@
       <c r="F83" s="3">
         <v>17.533000000000001</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="11">
         <v>17.466000000000001</v>
       </c>
-      <c r="H83" s="21"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H83" s="25">
+        <v>17.533000000000001</v>
+      </c>
+      <c r="I83" s="22"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.2" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>74</v>
       </c>
@@ -3206,12 +3504,15 @@
       <c r="F84" s="3">
         <v>17.716999999999999</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="11">
         <v>17.634</v>
       </c>
-      <c r="H84" s="21"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H84" s="25">
+        <v>17.716999999999999</v>
+      </c>
+      <c r="I84" s="22"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.2" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>75</v>
       </c>
@@ -3228,12 +3529,15 @@
       <c r="F85" s="3">
         <v>17.739999999999998</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="11">
         <v>17.675999999999998</v>
       </c>
-      <c r="H85" s="21"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H85" s="25">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="I85" s="22"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.2" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>76</v>
       </c>
@@ -3250,14 +3554,17 @@
       <c r="F86" s="3">
         <v>18.056000000000001</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="11">
         <v>18.007000000000001</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="25">
+        <v>18.056000000000001</v>
+      </c>
+      <c r="I86" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" ht="16.2" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>78</v>
       </c>
@@ -3274,14 +3581,17 @@
       <c r="F87" s="3">
         <v>18.524000000000001</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="11">
         <v>18.497</v>
       </c>
-      <c r="H87" s="21" t="s">
+      <c r="H87" s="25">
+        <v>18.524000000000001</v>
+      </c>
+      <c r="I87" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" ht="16.2" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>80</v>
       </c>
@@ -3298,12 +3608,15 @@
       <c r="F88" s="3">
         <v>18.748000000000001</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="11">
         <v>18.635999999999999</v>
       </c>
-      <c r="H88" s="21"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H88" s="25">
+        <v>18.748000000000001</v>
+      </c>
+      <c r="I88" s="22"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.2" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>81</v>
       </c>
@@ -3320,12 +3633,15 @@
       <c r="F89" s="3">
         <v>19.722000000000001</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="11">
         <v>19.535</v>
       </c>
-      <c r="H89" s="21"/>
-    </row>
-    <row r="90" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H89" s="24">
+        <v>19.726512</v>
+      </c>
+      <c r="I89" s="22"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.2" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
@@ -3342,12 +3658,15 @@
       <c r="F90" s="3">
         <v>20.04</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G90" s="11">
         <v>19.978999999999999</v>
       </c>
-      <c r="H90" s="21"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H90" s="24">
+        <v>20.100332999999999</v>
+      </c>
+      <c r="I90" s="22"/>
+    </row>
+    <row r="91" spans="1:9" ht="16.2" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>83</v>
       </c>
@@ -3364,14 +3683,17 @@
       <c r="F91" s="3">
         <v>20.213000000000001</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <v>20.181999999999999</v>
       </c>
-      <c r="H91" s="22" t="s">
+      <c r="H91" s="24">
+        <v>20.236488999999999</v>
+      </c>
+      <c r="I91" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" ht="16.2" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>84</v>
       </c>
@@ -3388,12 +3710,15 @@
       <c r="F92" s="3">
         <v>20.439</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G92" s="11">
         <v>20.448</v>
       </c>
-      <c r="H92" s="22"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H92" s="24">
+        <v>20.406721999999998</v>
+      </c>
+      <c r="I92" s="23"/>
+    </row>
+    <row r="93" spans="1:9" ht="16.2" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>85</v>
       </c>
@@ -3410,14 +3735,17 @@
       <c r="F93" s="3">
         <v>20.709</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93" s="11">
         <v>20.765000000000001</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="24">
+        <v>20.672937999999998</v>
+      </c>
+      <c r="I93" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" ht="16.2" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>86</v>
       </c>
@@ -3434,14 +3762,17 @@
       <c r="F94" s="3">
         <v>21.082999999999998</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="11">
         <v>21.13</v>
       </c>
-      <c r="H94" s="22" t="s">
+      <c r="H94" s="24">
+        <v>21.058230999999999</v>
+      </c>
+      <c r="I94" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" ht="16.2" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>87</v>
       </c>
@@ -3458,12 +3789,15 @@
       <c r="F95" s="3">
         <v>21.158999999999999</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="11">
         <v>21.204000000000001</v>
       </c>
-      <c r="H95" s="22"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H95" s="24">
+        <v>21.202072000000001</v>
+      </c>
+      <c r="I95" s="23"/>
+    </row>
+    <row r="96" spans="1:9" ht="16.2" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>88</v>
       </c>
@@ -3480,12 +3814,15 @@
       <c r="F96" s="3">
         <v>21.402999999999999</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G96" s="11">
         <v>21.440999999999999</v>
       </c>
-      <c r="H96" s="22"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H96" s="24">
+        <v>21.487524000000001</v>
+      </c>
+      <c r="I96" s="23"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.2" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>89</v>
       </c>
@@ -3502,12 +3839,15 @@
       <c r="F97" s="3">
         <v>21.483000000000001</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="11">
         <v>21.518999999999998</v>
       </c>
-      <c r="H97" s="22"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H97" s="24">
+        <v>21.544360000000001</v>
+      </c>
+      <c r="I97" s="23"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.2" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>90</v>
       </c>
@@ -3524,14 +3864,17 @@
       <c r="F98" s="3">
         <v>21.658999999999999</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="11">
         <v>21.690999999999999</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="24">
+        <v>21.687864000000001</v>
+      </c>
+      <c r="I98" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" ht="16.2" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>91</v>
       </c>
@@ -3548,14 +3891,17 @@
       <c r="F99" s="3">
         <v>21.687999999999999</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="11">
         <v>21.722000000000001</v>
       </c>
-      <c r="H99" s="22" t="s">
+      <c r="H99" s="24">
+        <v>21.73272</v>
+      </c>
+      <c r="I99" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" ht="16.2" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>92</v>
       </c>
@@ -3572,12 +3918,15 @@
       <c r="F100" s="3">
         <v>21.766999999999999</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G100" s="11">
         <v>21.806000000000001</v>
       </c>
-      <c r="H100" s="22"/>
-    </row>
-    <row r="101" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H100" s="24">
+        <v>21.785632</v>
+      </c>
+      <c r="I100" s="23"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.2" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>93</v>
       </c>
@@ -3594,14 +3943,17 @@
       <c r="F101" s="3">
         <v>21.936</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G101" s="11">
         <v>21.984999999999999</v>
       </c>
-      <c r="H101" s="21" t="s">
+      <c r="H101" s="24">
+        <v>21.99099</v>
+      </c>
+      <c r="I101" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" ht="16.2" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>95</v>
       </c>
@@ -3618,12 +3970,15 @@
       <c r="F102" s="3">
         <v>21.992000000000001</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="11">
         <v>22.042000000000002</v>
       </c>
-      <c r="H102" s="21"/>
-    </row>
-    <row r="103" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H102" s="24">
+        <v>22.050087000000001</v>
+      </c>
+      <c r="I102" s="22"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.2" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>96</v>
       </c>
@@ -3640,12 +3995,15 @@
       <c r="F103" s="3">
         <v>22.268000000000001</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="11">
         <v>22.341999999999999</v>
       </c>
-      <c r="H103" s="21"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H103" s="24">
+        <v>22.312954000000001</v>
+      </c>
+      <c r="I103" s="22"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.2" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>97</v>
       </c>
@@ -3662,12 +4020,15 @@
       <c r="F104" s="3">
         <v>22.564</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="11">
         <v>22.620999999999999</v>
       </c>
-      <c r="H104" s="21"/>
-    </row>
-    <row r="105" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H104" s="24">
+        <v>22.626469</v>
+      </c>
+      <c r="I104" s="22"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.2" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>98</v>
       </c>
@@ -3684,12 +4045,15 @@
       <c r="F105" s="3">
         <v>22.754000000000001</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="11">
         <v>22.792000000000002</v>
       </c>
-      <c r="H105" s="21"/>
-    </row>
-    <row r="106" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H105" s="24">
+        <v>22.794326000000002</v>
+      </c>
+      <c r="I105" s="22"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.2" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>99</v>
       </c>
@@ -3706,12 +4070,15 @@
       <c r="F106" s="3">
         <v>22.902000000000001</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="11">
         <v>22.972999999999999</v>
       </c>
-      <c r="H106" s="21"/>
-    </row>
-    <row r="107" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H106" s="24">
+        <v>22.957353000000001</v>
+      </c>
+      <c r="I106" s="22"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.2" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>100</v>
       </c>
@@ -3726,12 +4093,15 @@
       <c r="F107" s="3">
         <v>23.03</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="11">
         <v>23.04</v>
       </c>
-      <c r="H107" s="21"/>
-    </row>
-    <row r="108" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H107" s="24">
+        <v>23.039287999999999</v>
+      </c>
+      <c r="I107" s="22"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.2" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>101</v>
       </c>
@@ -3746,12 +4116,15 @@
       <c r="F108" s="3">
         <v>23.233000000000001</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G108" s="11">
         <v>23.212</v>
       </c>
-      <c r="H108" s="21"/>
-    </row>
-    <row r="109" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H108" s="24">
+        <v>23.214879</v>
+      </c>
+      <c r="I108" s="22"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.2" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>102</v>
       </c>
@@ -3766,12 +4139,15 @@
       <c r="F109" s="3">
         <v>23.295000000000002</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="11">
         <v>23.318000000000001</v>
       </c>
-      <c r="H109" s="21"/>
-    </row>
-    <row r="110" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H109" s="24">
+        <v>23.322583999999999</v>
+      </c>
+      <c r="I109" s="22"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.2" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>103</v>
       </c>
@@ -3786,12 +4162,15 @@
       <c r="F110" s="3">
         <v>23.962</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="11">
         <v>24.024999999999999</v>
       </c>
-      <c r="H110" s="21"/>
-    </row>
-    <row r="111" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H110" s="24">
+        <v>24.032212000000001</v>
+      </c>
+      <c r="I110" s="22"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.2" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>104</v>
       </c>
@@ -3806,12 +4185,15 @@
       <c r="F111" s="3">
         <v>24</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="11">
         <v>24.061</v>
       </c>
-      <c r="H111" s="21"/>
-    </row>
-    <row r="112" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H111" s="24">
+        <v>24.057039</v>
+      </c>
+      <c r="I111" s="22"/>
+    </row>
+    <row r="112" spans="1:9" ht="16.2" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>105</v>
       </c>
@@ -3826,12 +4208,15 @@
       <c r="F112" s="3">
         <v>24.109000000000002</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="11">
         <v>24.123999999999999</v>
       </c>
-      <c r="H112" s="21"/>
-    </row>
-    <row r="113" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H112" s="24">
+        <v>24.115289000000001</v>
+      </c>
+      <c r="I112" s="22"/>
+    </row>
+    <row r="113" spans="1:9" ht="16.2" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>106</v>
       </c>
@@ -3846,12 +4231,15 @@
       <c r="F113" s="3">
         <v>24.474</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="11">
         <v>24.459</v>
       </c>
-      <c r="H113" s="21"/>
-    </row>
-    <row r="114" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H113" s="24">
+        <v>24.462091999999998</v>
+      </c>
+      <c r="I113" s="22"/>
+    </row>
+    <row r="114" spans="1:9" ht="16.2" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>107</v>
       </c>
@@ -3866,12 +4254,15 @@
       <c r="F114" s="3">
         <v>24.760999999999999</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G114" s="11">
         <v>24.654</v>
       </c>
-      <c r="H114" s="21"/>
-    </row>
-    <row r="115" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H114" s="24">
+        <v>24.768415999999998</v>
+      </c>
+      <c r="I114" s="22"/>
+    </row>
+    <row r="115" spans="1:9" ht="16.2" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>108</v>
       </c>
@@ -3886,12 +4277,15 @@
       <c r="F115" s="3">
         <v>24.984000000000002</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="11">
         <v>24.765999999999998</v>
       </c>
-      <c r="H115" s="21"/>
-    </row>
-    <row r="116" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H115" s="24">
+        <v>24.894566000000001</v>
+      </c>
+      <c r="I115" s="22"/>
+    </row>
+    <row r="116" spans="1:9" ht="16.2" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>109</v>
       </c>
@@ -3906,14 +4300,17 @@
       <c r="F116" s="3">
         <v>25.099</v>
       </c>
-      <c r="G116" s="12">
+      <c r="G116" s="11">
         <v>25.099</v>
       </c>
-      <c r="H116" s="22" t="s">
+      <c r="H116" s="24">
+        <v>25.049133999999999</v>
+      </c>
+      <c r="I116" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" ht="16.2" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>110</v>
       </c>
@@ -3928,12 +4325,15 @@
       <c r="F117" s="3">
         <v>25.263999999999999</v>
       </c>
-      <c r="G117" s="12">
+      <c r="G117" s="11">
         <v>25.263999999999999</v>
       </c>
-      <c r="H117" s="22"/>
-    </row>
-    <row r="118" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H117" s="24">
+        <v>25.220179000000002</v>
+      </c>
+      <c r="I117" s="23"/>
+    </row>
+    <row r="118" spans="1:9" ht="16.2" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>111</v>
       </c>
@@ -3948,12 +4348,15 @@
       <c r="F118" s="3">
         <v>25.303999999999998</v>
       </c>
-      <c r="G118" s="12">
+      <c r="G118" s="11">
         <v>25.303999999999998</v>
       </c>
-      <c r="H118" s="22"/>
-    </row>
-    <row r="119" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H118" s="24">
+        <v>25.258863999999999</v>
+      </c>
+      <c r="I118" s="23"/>
+    </row>
+    <row r="119" spans="1:9" ht="16.2" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>112</v>
       </c>
@@ -3968,12 +4371,15 @@
       <c r="F119" s="3">
         <v>25.986999999999998</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G119" s="11">
         <v>25.986999999999998</v>
       </c>
-      <c r="H119" s="22"/>
-    </row>
-    <row r="120" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H119" s="24">
+        <v>25.978618999999998</v>
+      </c>
+      <c r="I119" s="23"/>
+    </row>
+    <row r="120" spans="1:9" ht="16.2" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>113</v>
       </c>
@@ -3988,12 +4394,15 @@
       <c r="F120" s="3">
         <v>26.42</v>
       </c>
-      <c r="G120" s="12">
+      <c r="G120" s="11">
         <v>26.42</v>
       </c>
-      <c r="H120" s="22"/>
-    </row>
-    <row r="121" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H120" s="24">
+        <v>26.598884000000002</v>
+      </c>
+      <c r="I120" s="23"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.2" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>114</v>
       </c>
@@ -4008,12 +4417,15 @@
       <c r="F121" s="3">
         <v>27.439</v>
       </c>
-      <c r="G121" s="12">
+      <c r="G121" s="11">
         <v>27.439</v>
       </c>
-      <c r="H121" s="22"/>
-    </row>
-    <row r="122" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H121" s="24">
+        <v>27.406905999999999</v>
+      </c>
+      <c r="I121" s="23"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.2" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>115</v>
       </c>
@@ -4028,12 +4440,15 @@
       <c r="F122" s="3">
         <v>27.859000000000002</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G122" s="11">
         <v>27.859000000000002</v>
       </c>
-      <c r="H122" s="22"/>
-    </row>
-    <row r="123" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H122" s="24">
+        <v>27.846712</v>
+      </c>
+      <c r="I122" s="23"/>
+    </row>
+    <row r="123" spans="1:9" ht="16.2" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>116</v>
       </c>
@@ -4048,12 +4463,15 @@
       <c r="F123" s="3">
         <v>28.087</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G123" s="11">
         <v>28.087</v>
       </c>
-      <c r="H123" s="22"/>
-    </row>
-    <row r="124" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H123" s="24">
+        <v>28.107479000000001</v>
+      </c>
+      <c r="I123" s="23"/>
+    </row>
+    <row r="124" spans="1:9" ht="16.2" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>117</v>
       </c>
@@ -4068,12 +4486,15 @@
       <c r="F124" s="3">
         <v>28.140999999999998</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G124" s="11">
         <v>28.140999999999998</v>
       </c>
-      <c r="H124" s="22"/>
-    </row>
-    <row r="125" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H124" s="24">
+        <v>28.157195999999999</v>
+      </c>
+      <c r="I124" s="23"/>
+    </row>
+    <row r="125" spans="1:9" ht="16.2" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>118</v>
       </c>
@@ -4088,12 +4509,15 @@
       <c r="F125" s="3">
         <v>28.277999999999999</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G125" s="11">
         <v>28.277999999999999</v>
       </c>
-      <c r="H125" s="22"/>
-    </row>
-    <row r="126" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H125" s="24">
+        <v>28.262715</v>
+      </c>
+      <c r="I125" s="23"/>
+    </row>
+    <row r="126" spans="1:9" ht="16.2" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>119</v>
       </c>
@@ -4108,12 +4532,15 @@
       <c r="F126" s="3">
         <v>29.183</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G126" s="11">
         <v>29.183</v>
       </c>
-      <c r="H126" s="22"/>
-    </row>
-    <row r="127" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H126" s="24">
+        <v>29.149425000000001</v>
+      </c>
+      <c r="I126" s="23"/>
+    </row>
+    <row r="127" spans="1:9" ht="16.2" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>120</v>
       </c>
@@ -4128,12 +4555,15 @@
       <c r="F127" s="3">
         <v>29.477</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G127" s="11">
         <v>29.477</v>
       </c>
-      <c r="H127" s="22"/>
-    </row>
-    <row r="128" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H127" s="24">
+        <v>29.580556999999999</v>
+      </c>
+      <c r="I127" s="23"/>
+    </row>
+    <row r="128" spans="1:9" ht="16.2" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>121</v>
       </c>
@@ -4148,12 +4578,15 @@
       <c r="F128" s="3">
         <v>29.527000000000001</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G128" s="11">
         <v>29.527000000000001</v>
       </c>
-      <c r="H128" s="22"/>
-    </row>
-    <row r="129" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H128" s="24">
+        <v>29.641842</v>
+      </c>
+      <c r="I128" s="23"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.2" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>122</v>
       </c>
@@ -4168,12 +4601,15 @@
       <c r="F129" s="3">
         <v>29.97</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G129" s="11">
         <v>29.97</v>
       </c>
-      <c r="H129" s="22"/>
-    </row>
-    <row r="130" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H129" s="24">
+        <v>29.989706000000002</v>
+      </c>
+      <c r="I129" s="23"/>
+    </row>
+    <row r="130" spans="1:9" ht="16.2" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>123</v>
       </c>
@@ -4188,12 +4624,15 @@
       <c r="F130" s="3">
         <v>30.591000000000001</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G130" s="11">
         <v>30.591000000000001</v>
       </c>
-      <c r="H130" s="22"/>
-    </row>
-    <row r="131" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H130" s="24">
+        <v>30.755460500000002</v>
+      </c>
+      <c r="I130" s="23"/>
+    </row>
+    <row r="131" spans="1:9" ht="16.2" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>124</v>
       </c>
@@ -4208,14 +4647,17 @@
       <c r="F131" s="3">
         <v>31.033999999999999</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G131" s="11">
         <v>30.977</v>
       </c>
-      <c r="H131" s="21" t="s">
+      <c r="H131" s="24">
+        <v>30.977419390000001</v>
+      </c>
+      <c r="I131" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" ht="16.2" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>126</v>
       </c>
@@ -4230,12 +4672,15 @@
       <c r="F132" s="3">
         <v>33.156999999999996</v>
       </c>
-      <c r="G132" s="12">
+      <c r="G132" s="11">
         <v>33.213999999999999</v>
       </c>
-      <c r="H132" s="21"/>
-    </row>
-    <row r="133" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H132" s="24">
+        <v>33.213949550000002</v>
+      </c>
+      <c r="I132" s="22"/>
+    </row>
+    <row r="133" spans="1:9" ht="16.2" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>127</v>
       </c>
@@ -4250,12 +4695,15 @@
       <c r="F133" s="3">
         <v>33.704999999999998</v>
       </c>
-      <c r="G133" s="12">
+      <c r="G133" s="11">
         <v>33.725999999999999</v>
       </c>
-      <c r="H133" s="21"/>
-    </row>
-    <row r="134" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H133" s="24">
+        <v>33.725793098413348</v>
+      </c>
+      <c r="I133" s="22"/>
+    </row>
+    <row r="134" spans="1:9" ht="16.2" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>128</v>
       </c>
@@ -4270,14 +4718,17 @@
       <c r="F134" s="3">
         <v>35.101999999999997</v>
       </c>
-      <c r="G134" s="12">
+      <c r="G134" s="11">
         <v>35.101999999999997</v>
       </c>
-      <c r="H134" s="21" t="s">
+      <c r="H134" s="24">
+        <v>35.101858484999994</v>
+      </c>
+      <c r="I134" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" ht="16.2" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>130</v>
       </c>
@@ -4292,12 +4743,15 @@
       <c r="F135" s="3">
         <v>35.335999999999999</v>
       </c>
-      <c r="G135" s="12">
+      <c r="G135" s="11">
         <v>35.335999999999999</v>
       </c>
-      <c r="H135" s="21"/>
-    </row>
-    <row r="136" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H135" s="24">
+        <v>35.335556775000001</v>
+      </c>
+      <c r="I135" s="22"/>
+    </row>
+    <row r="136" spans="1:9" ht="16.2" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>131</v>
       </c>
@@ -4312,12 +4766,15 @@
       <c r="F136" s="3">
         <v>35.58</v>
       </c>
-      <c r="G136" s="12">
+      <c r="G136" s="11">
         <v>35.58</v>
       </c>
-      <c r="H136" s="21"/>
-    </row>
-    <row r="137" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H136" s="24">
+        <v>35.580348753785444</v>
+      </c>
+      <c r="I136" s="22"/>
+    </row>
+    <row r="137" spans="1:9" ht="16.2" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>132</v>
       </c>
@@ -4332,12 +4789,15 @@
       <c r="F137" s="3">
         <v>35.718000000000004</v>
       </c>
-      <c r="G137" s="12">
+      <c r="G137" s="11">
         <v>35.718000000000004</v>
       </c>
-      <c r="H137" s="21"/>
-    </row>
-    <row r="138" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H137" s="24">
+        <v>35.718457716628564</v>
+      </c>
+      <c r="I137" s="22"/>
+    </row>
+    <row r="138" spans="1:9" ht="16.2" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>133</v>
       </c>
@@ -4352,12 +4812,15 @@
       <c r="F138" s="3">
         <v>35.774000000000001</v>
       </c>
-      <c r="G138" s="12">
+      <c r="G138" s="11">
         <v>35.774000000000001</v>
       </c>
-      <c r="H138" s="21"/>
-    </row>
-    <row r="139" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H138" s="24">
+        <v>35.774327149624554</v>
+      </c>
+      <c r="I138" s="22"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.2" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>134</v>
       </c>
@@ -4372,12 +4835,15 @@
       <c r="F139" s="3">
         <v>36.350999999999999</v>
       </c>
-      <c r="G139" s="12">
+      <c r="G139" s="11">
         <v>36.350999999999999</v>
       </c>
-      <c r="H139" s="21"/>
-    </row>
-    <row r="140" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H139" s="24">
+        <v>36.351066597946911</v>
+      </c>
+      <c r="I139" s="22"/>
+    </row>
+    <row r="140" spans="1:9" ht="16.2" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>135</v>
       </c>
@@ -4392,12 +4858,15 @@
       <c r="F140" s="3">
         <v>36.573</v>
       </c>
-      <c r="G140" s="12">
+      <c r="G140" s="11">
         <v>36.573</v>
       </c>
-      <c r="H140" s="21"/>
-    </row>
-    <row r="141" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H140" s="24">
+        <v>36.573240225000006</v>
+      </c>
+      <c r="I140" s="22"/>
+    </row>
+    <row r="141" spans="1:9" ht="16.2" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>136</v>
       </c>
@@ -4412,12 +4881,15 @@
       <c r="F141" s="3">
         <v>37.384999999999998</v>
       </c>
-      <c r="G141" s="12">
+      <c r="G141" s="11">
         <v>37.384999999999998</v>
       </c>
-      <c r="H141" s="21"/>
-    </row>
-    <row r="142" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H141" s="24">
+        <v>37.384596884617082</v>
+      </c>
+      <c r="I141" s="22"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.2" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>137</v>
       </c>
@@ -4432,12 +4904,15 @@
       <c r="F142" s="3">
         <v>37.53</v>
       </c>
-      <c r="G142" s="12">
+      <c r="G142" s="11">
         <v>37.53</v>
       </c>
-      <c r="H142" s="21"/>
-    </row>
-    <row r="143" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H142" s="24">
+        <v>37.530349995000002</v>
+      </c>
+      <c r="I142" s="22"/>
+    </row>
+    <row r="143" spans="1:9" ht="16.2" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>138</v>
       </c>
@@ -4452,12 +4927,15 @@
       <c r="F143" s="3">
         <v>37.780999999999999</v>
       </c>
-      <c r="G143" s="12">
+      <c r="G143" s="11">
         <v>37.780999999999999</v>
       </c>
-      <c r="H143" s="21"/>
-    </row>
-    <row r="144" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H143" s="24">
+        <v>37.781103579395825</v>
+      </c>
+      <c r="I143" s="22"/>
+    </row>
+    <row r="144" spans="1:9" ht="16.2" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>139</v>
       </c>
@@ -4472,12 +4950,15 @@
       <c r="F144" s="3">
         <v>37.857999999999997</v>
       </c>
-      <c r="G144" s="12">
+      <c r="G144" s="11">
         <v>37.857999999999997</v>
       </c>
-      <c r="H144" s="21"/>
-    </row>
-    <row r="145" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H144" s="24">
+        <v>37.857836361607553</v>
+      </c>
+      <c r="I144" s="22"/>
+    </row>
+    <row r="145" spans="1:9" ht="16.2" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>140</v>
       </c>
@@ -4492,12 +4973,15 @@
       <c r="F145" s="3">
         <v>38.081000000000003</v>
       </c>
-      <c r="G145" s="12">
+      <c r="G145" s="11">
         <v>38.081000000000003</v>
       </c>
-      <c r="H145" s="21"/>
-    </row>
-    <row r="146" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H145" s="24">
+        <v>38.080855194999998</v>
+      </c>
+      <c r="I145" s="22"/>
+    </row>
+    <row r="146" spans="1:9" ht="16.2" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>141</v>
       </c>
@@ -4512,12 +4996,15 @@
       <c r="F146" s="3">
         <v>38.398000000000003</v>
       </c>
-      <c r="G146" s="12">
+      <c r="G146" s="11">
         <v>38.398000000000003</v>
       </c>
-      <c r="H146" s="21"/>
-    </row>
-    <row r="147" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H146" s="24">
+        <v>38.423333</v>
+      </c>
+      <c r="I146" s="22"/>
+    </row>
+    <row r="147" spans="1:9" ht="16.2" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>142</v>
       </c>
@@ -4532,12 +5019,15 @@
       <c r="F147" s="3">
         <v>39.582000000000001</v>
       </c>
-      <c r="G147" s="12">
+      <c r="G147" s="11">
         <v>39.582000000000001</v>
       </c>
-      <c r="H147" s="21"/>
-    </row>
-    <row r="148" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H147" s="24">
+        <v>39.825392999999998</v>
+      </c>
+      <c r="I147" s="22"/>
+    </row>
+    <row r="148" spans="1:9" ht="16.2" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>143</v>
       </c>
@@ -4552,12 +5042,15 @@
       <c r="F148" s="3">
         <v>39.665999999999997</v>
       </c>
-      <c r="G148" s="12">
+      <c r="G148" s="11">
         <v>39.665999999999997</v>
       </c>
-      <c r="H148" s="21"/>
-    </row>
-    <row r="149" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H148" s="24">
+        <v>39.941344000000001</v>
+      </c>
+      <c r="I148" s="22"/>
+    </row>
+    <row r="149" spans="1:9" ht="16.2" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>144</v>
       </c>
@@ -4572,12 +5065,15 @@
       <c r="F149" s="3">
         <v>40.073</v>
       </c>
-      <c r="G149" s="12">
+      <c r="G149" s="11">
         <v>40.073</v>
       </c>
-      <c r="H149" s="21"/>
-    </row>
-    <row r="150" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H149" s="24">
+        <v>40.276398</v>
+      </c>
+      <c r="I149" s="22"/>
+    </row>
+    <row r="150" spans="1:9" ht="16.2" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>145</v>
       </c>
@@ -4592,12 +5088,15 @@
       <c r="F150" s="3">
         <v>41.03</v>
       </c>
-      <c r="G150" s="12">
+      <c r="G150" s="11">
         <v>41.03</v>
       </c>
-      <c r="H150" s="21"/>
-    </row>
-    <row r="151" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H150" s="24">
+        <v>41.061873538606399</v>
+      </c>
+      <c r="I150" s="22"/>
+    </row>
+    <row r="151" spans="1:9" ht="16.2" customHeight="1">
       <c r="A151" s="3" t="s">
         <v>146</v>
       </c>
@@ -4612,12 +5111,15 @@
       <c r="F151" s="3">
         <v>41.18</v>
       </c>
-      <c r="G151" s="12">
+      <c r="G151" s="11">
         <v>41.18</v>
       </c>
-      <c r="H151" s="21"/>
-    </row>
-    <row r="152" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H151" s="24">
+        <v>41.261631479280254</v>
+      </c>
+      <c r="I151" s="22"/>
+    </row>
+    <row r="152" spans="1:9" ht="16.2" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>147</v>
       </c>
@@ -4632,14 +5134,17 @@
       <c r="F152" s="3">
         <v>42.124000000000002</v>
       </c>
-      <c r="G152" s="12">
+      <c r="G152" s="11">
         <v>42.195999999999998</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="H152" s="24">
+        <v>42.196241999999998</v>
+      </c>
+      <c r="I152" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" ht="16.2" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>149</v>
       </c>
@@ -4654,14 +5159,17 @@
       <c r="F153" s="3">
         <v>43.426000000000002</v>
       </c>
-      <c r="G153" s="12">
+      <c r="G153" s="11">
         <v>43.45</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="H153" s="24">
+        <v>43.507734499999998</v>
+      </c>
+      <c r="I153" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" ht="16.2" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>151</v>
       </c>
@@ -4676,14 +5184,17 @@
       <c r="F154" s="3">
         <v>45.723999999999997</v>
       </c>
-      <c r="G154" s="12">
+      <c r="G154" s="11">
         <v>46.234999999999999</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="H154" s="24">
+        <v>46.234644500000002</v>
+      </c>
+      <c r="I154" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" ht="16.2" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>152</v>
       </c>
@@ -4698,14 +5209,17 @@
       <c r="F155" s="3">
         <v>47.348999999999997</v>
       </c>
-      <c r="G155" s="12">
+      <c r="G155" s="11">
         <v>47.76</v>
       </c>
-      <c r="H155" s="21" t="s">
+      <c r="H155" s="24">
+        <v>47.856567999999996</v>
+      </c>
+      <c r="I155" s="22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" ht="16.2" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>154</v>
       </c>
@@ -4720,12 +5234,15 @@
       <c r="F156" s="3">
         <v>48.566000000000003</v>
       </c>
-      <c r="G156" s="12">
+      <c r="G156" s="11">
         <v>48.878</v>
       </c>
-      <c r="H156" s="21"/>
-    </row>
-    <row r="157" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H156" s="24">
+        <v>49.173318500000001</v>
+      </c>
+      <c r="I156" s="22"/>
+    </row>
+    <row r="157" spans="1:9" ht="16.2" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>155</v>
       </c>
@@ -4740,12 +5257,15 @@
       <c r="F157" s="3">
         <v>49.344000000000001</v>
       </c>
-      <c r="G157" s="12">
+      <c r="G157" s="11">
         <v>49.665999999999997</v>
       </c>
-      <c r="H157" s="21"/>
-    </row>
-    <row r="158" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H157" s="24">
+        <v>49.712705999999997</v>
+      </c>
+      <c r="I157" s="22"/>
+    </row>
+    <row r="158" spans="1:9" ht="16.2" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>156</v>
       </c>
@@ -4760,12 +5280,15 @@
       <c r="F158" s="3">
         <v>50.628</v>
       </c>
-      <c r="G158" s="12">
+      <c r="G158" s="11">
         <v>50.767000000000003</v>
       </c>
-      <c r="H158" s="21"/>
-    </row>
-    <row r="159" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H158" s="24">
+        <v>50.775981999999999</v>
+      </c>
+      <c r="I158" s="22"/>
+    </row>
+    <row r="159" spans="1:9" ht="16.2" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>157</v>
       </c>
@@ -4780,12 +5303,15 @@
       <c r="F159" s="3">
         <v>50.835000000000001</v>
       </c>
-      <c r="G159" s="12">
+      <c r="G159" s="11">
         <v>50.996000000000002</v>
       </c>
-      <c r="H159" s="21"/>
-    </row>
-    <row r="160" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H159" s="24">
+        <v>50.942111499999996</v>
+      </c>
+      <c r="I159" s="22"/>
+    </row>
+    <row r="160" spans="1:9" ht="16.2" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>158</v>
       </c>
@@ -4800,12 +5326,15 @@
       <c r="F160" s="3">
         <v>50.960999999999999</v>
       </c>
-      <c r="G160" s="12">
+      <c r="G160" s="11">
         <v>51.046999999999997</v>
       </c>
-      <c r="H160" s="21"/>
-    </row>
-    <row r="161" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H160" s="24">
+        <v>51.024749999999997</v>
+      </c>
+      <c r="I160" s="22"/>
+    </row>
+    <row r="161" spans="1:9" ht="16.2" customHeight="1">
       <c r="A161" s="3" t="s">
         <v>159</v>
       </c>
@@ -4820,12 +5349,15 @@
       <c r="F161" s="3">
         <v>51.832999999999998</v>
       </c>
-      <c r="G161" s="12">
+      <c r="G161" s="11">
         <v>51.723999999999997</v>
       </c>
-      <c r="H161" s="21"/>
-    </row>
-    <row r="162" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H161" s="24">
+        <v>51.737413000000004</v>
+      </c>
+      <c r="I161" s="22"/>
+    </row>
+    <row r="162" spans="1:9" ht="16.2" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>160</v>
       </c>
@@ -4840,12 +5372,15 @@
       <c r="F162" s="3">
         <v>52.62</v>
       </c>
-      <c r="G162" s="12">
+      <c r="G162" s="11">
         <v>52.54</v>
       </c>
-      <c r="H162" s="21"/>
-    </row>
-    <row r="163" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H162" s="24">
+        <v>52.627802500000001</v>
+      </c>
+      <c r="I162" s="22"/>
+    </row>
+    <row r="163" spans="1:9" ht="16.2" customHeight="1">
       <c r="A163" s="3" t="s">
         <v>161</v>
       </c>
@@ -4860,12 +5395,15 @@
       <c r="F163" s="3">
         <v>53.073999999999998</v>
       </c>
-      <c r="G163" s="12">
+      <c r="G163" s="11">
         <v>52.93</v>
       </c>
-      <c r="H163" s="21"/>
-    </row>
-    <row r="164" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H163" s="24">
+        <v>52.938681000000003</v>
+      </c>
+      <c r="I163" s="22"/>
+    </row>
+    <row r="164" spans="1:9" ht="16.2" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>162</v>
       </c>
@@ -4880,12 +5418,15 @@
       <c r="F164" s="3">
         <v>53.198999999999998</v>
       </c>
-      <c r="G164" s="12">
+      <c r="G164" s="11">
         <v>53.02</v>
       </c>
-      <c r="H164" s="21"/>
-    </row>
-    <row r="165" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H164" s="24">
+        <v>53.088231499999999</v>
+      </c>
+      <c r="I164" s="22"/>
+    </row>
+    <row r="165" spans="1:9" ht="16.2" customHeight="1">
       <c r="A165" s="3" t="s">
         <v>163</v>
       </c>
@@ -4900,12 +5441,15 @@
       <c r="F165" s="3">
         <v>53.274000000000001</v>
       </c>
-      <c r="G165" s="12">
+      <c r="G165" s="11">
         <v>53.12</v>
       </c>
-      <c r="H165" s="21"/>
-    </row>
-    <row r="166" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H165" s="24">
+        <v>53.123165999999998</v>
+      </c>
+      <c r="I165" s="22"/>
+    </row>
+    <row r="166" spans="1:9" ht="16.2" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>164</v>
       </c>
@@ -4920,12 +5464,15 @@
       <c r="F166" s="3">
         <v>53.415999999999997</v>
       </c>
-      <c r="G166" s="12">
+      <c r="G166" s="11">
         <v>53.25</v>
       </c>
-      <c r="H166" s="21"/>
-    </row>
-    <row r="167" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H166" s="24">
+        <v>53.402558999999997</v>
+      </c>
+      <c r="I166" s="22"/>
+    </row>
+    <row r="167" spans="1:9" ht="16.2" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>165</v>
       </c>
@@ -4940,12 +5487,15 @@
       <c r="F167" s="3">
         <v>53.982999999999997</v>
       </c>
-      <c r="G167" s="12">
+      <c r="G167" s="11">
         <v>53.9</v>
       </c>
-      <c r="H167" s="21"/>
-    </row>
-    <row r="168" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H167" s="24">
+        <v>53.898835500000004</v>
+      </c>
+      <c r="I167" s="22"/>
+    </row>
+    <row r="168" spans="1:9" ht="16.2" customHeight="1">
       <c r="A168" s="3" t="s">
         <v>166</v>
       </c>
@@ -4960,14 +5510,17 @@
       <c r="F168" s="3">
         <v>57.100999999999999</v>
       </c>
-      <c r="G168" s="12">
+      <c r="G168" s="11">
         <v>57.100999999999999</v>
       </c>
-      <c r="H168" s="21" t="s">
+      <c r="H168" s="24">
+        <v>57.072673907195778</v>
+      </c>
+      <c r="I168" s="22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" ht="16.2" customHeight="1">
       <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
@@ -4982,12 +5535,15 @@
       <c r="F169" s="3">
         <v>57.655999999999999</v>
       </c>
-      <c r="G169" s="12">
+      <c r="G169" s="11">
         <v>57.655999999999999</v>
       </c>
-      <c r="H169" s="21"/>
-    </row>
-    <row r="170" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H169" s="24">
+        <v>57.598361604492354</v>
+      </c>
+      <c r="I169" s="22"/>
+    </row>
+    <row r="170" spans="1:9" ht="16.2" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>169</v>
       </c>
@@ -5002,12 +5558,15 @@
       <c r="F170" s="3">
         <v>58.959000000000003</v>
       </c>
-      <c r="G170" s="12">
+      <c r="G170" s="11">
         <v>58.959000000000003</v>
       </c>
-      <c r="H170" s="21"/>
-    </row>
-    <row r="171" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H170" s="24">
+        <v>58.864833333333337</v>
+      </c>
+      <c r="I170" s="22"/>
+    </row>
+    <row r="171" spans="1:9" ht="16.2" customHeight="1">
       <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
@@ -5022,12 +5581,15 @@
       <c r="F171" s="3">
         <v>59.237000000000002</v>
       </c>
-      <c r="G171" s="12">
+      <c r="G171" s="11">
         <v>59.237000000000002</v>
       </c>
-      <c r="H171" s="21"/>
-    </row>
-    <row r="172" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H171" s="24">
+        <v>59.196750619804583</v>
+      </c>
+      <c r="I171" s="22"/>
+    </row>
+    <row r="172" spans="1:9" ht="16.2" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
@@ -5042,14 +5604,17 @@
       <c r="F172" s="3">
         <v>62.220999999999997</v>
       </c>
-      <c r="G172" s="12">
+      <c r="G172" s="11">
         <v>62.277999999999999</v>
       </c>
-      <c r="H172" s="21" t="s">
+      <c r="H172" s="24">
+        <v>62.126070019603205</v>
+      </c>
+      <c r="I172" s="22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" ht="16.2" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>173</v>
       </c>
@@ -5064,12 +5629,15 @@
       <c r="F173" s="3">
         <v>62.517000000000003</v>
       </c>
-      <c r="G173" s="12">
+      <c r="G173" s="11">
         <v>62.53</v>
       </c>
-      <c r="H173" s="21"/>
-    </row>
-    <row r="174" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H173" s="24">
+        <v>62.448053123040538</v>
+      </c>
+      <c r="I173" s="22"/>
+    </row>
+    <row r="174" spans="1:9" ht="16.2" customHeight="1">
       <c r="A174" s="3" t="s">
         <v>174</v>
       </c>
@@ -5084,12 +5652,15 @@
       <c r="F174" s="3">
         <v>63.494</v>
       </c>
-      <c r="G174" s="12">
+      <c r="G174" s="11">
         <v>63.536999999999999</v>
       </c>
-      <c r="H174" s="21"/>
-    </row>
-    <row r="175" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H174" s="24">
+        <v>63.557673290909094</v>
+      </c>
+      <c r="I174" s="22"/>
+    </row>
+    <row r="175" spans="1:9" ht="16.2" customHeight="1">
       <c r="A175" s="3" t="s">
         <v>175</v>
       </c>
@@ -5104,12 +5675,15 @@
       <c r="F175" s="3">
         <v>64.667000000000002</v>
       </c>
-      <c r="G175" s="12">
+      <c r="G175" s="11">
         <v>64.644999999999996</v>
       </c>
-      <c r="H175" s="21"/>
-    </row>
-    <row r="176" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H175" s="24">
+        <v>64.607547060606066</v>
+      </c>
+      <c r="I175" s="22"/>
+    </row>
+    <row r="176" spans="1:9" ht="16.2" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>176</v>
       </c>
@@ -5124,12 +5698,15 @@
       <c r="F176" s="3">
         <v>64.957999999999998</v>
       </c>
-      <c r="G176" s="12">
+      <c r="G176" s="11">
         <v>64.861999999999995</v>
       </c>
-      <c r="H176" s="21"/>
-    </row>
-    <row r="177" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H176" s="24">
+        <v>64.871309436363646</v>
+      </c>
+      <c r="I176" s="22"/>
+    </row>
+    <row r="177" spans="1:9" ht="16.2" customHeight="1">
       <c r="A177" s="3" t="s">
         <v>177</v>
       </c>
@@ -5144,233 +5721,251 @@
       <c r="F177" s="3">
         <v>65.688000000000002</v>
       </c>
-      <c r="G177" s="12">
+      <c r="G177" s="11">
         <v>65.7</v>
       </c>
-      <c r="H177" s="21"/>
-    </row>
-    <row r="178" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="8" t="s">
+      <c r="H177" s="24">
+        <v>65.652905766415884</v>
+      </c>
+      <c r="I177" s="22"/>
+    </row>
+    <row r="178" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A178" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="9"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
       <c r="F178" s="3">
         <v>66.41</v>
       </c>
-      <c r="G178" s="13">
+      <c r="G178" s="12">
         <v>66.38</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="8" t="s">
+      <c r="H178" s="24">
+        <v>66.392967586220777</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A179" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="13">
+      <c r="B179" s="8"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="12">
         <v>68.177999999999997</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="8" t="s">
+      <c r="H179" s="12"/>
+    </row>
+    <row r="180" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A180" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B180" s="9"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="13">
+      <c r="B180" s="8"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="12">
         <v>68.350999999999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="8" t="s">
+      <c r="H180" s="12"/>
+    </row>
+    <row r="181" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A181" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B181" s="9"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="13">
+      <c r="B181" s="8"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="12">
         <v>69.271000000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="8" t="s">
+      <c r="H181" s="12"/>
+    </row>
+    <row r="182" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A182" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B182" s="9"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="13">
+      <c r="B182" s="8"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="12">
         <v>71.450999999999993</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="8" t="s">
+      <c r="H182" s="12"/>
+    </row>
+    <row r="183" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A183" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B183" s="9"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="13">
+      <c r="B183" s="8"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="12">
         <v>71.691000000000003</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="8" t="s">
+      <c r="H183" s="12"/>
+    </row>
+    <row r="184" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A184" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B184" s="9"/>
-      <c r="C184" s="10"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="13">
+      <c r="B184" s="8"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="12">
         <v>71.850999999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="8" t="s">
+      <c r="H184" s="12"/>
+    </row>
+    <row r="185" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A185" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B185" s="9"/>
-      <c r="C185" s="10"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9"/>
-      <c r="F185" s="9"/>
-      <c r="G185" s="13">
+      <c r="B185" s="8"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="12">
         <v>73.650999999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="8" t="s">
+      <c r="H185" s="12"/>
+    </row>
+    <row r="186" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A186" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B186" s="9"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
-      <c r="F186" s="9"/>
-      <c r="G186" s="13">
+      <c r="B186" s="8"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="12">
         <v>73.950999999999993</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="8" t="s">
+      <c r="H186" s="12"/>
+    </row>
+    <row r="187" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A187" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B187" s="9"/>
-      <c r="C187" s="10"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-      <c r="F187" s="9"/>
-      <c r="G187" s="13">
+      <c r="B187" s="8"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="12">
         <v>74.051000000000002</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="8" t="s">
+      <c r="H187" s="12"/>
+    </row>
+    <row r="188" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A188" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B188" s="9"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
-      <c r="F188" s="9"/>
-      <c r="G188" s="13">
+      <c r="B188" s="8"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="12">
         <v>74.200999999999993</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="8" t="s">
+      <c r="H188" s="12"/>
+    </row>
+    <row r="189" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A189" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B189" s="9"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="9"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="13">
+      <c r="B189" s="8"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="12">
         <v>79.900000000000006</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="8" t="s">
+      <c r="H189" s="12"/>
+    </row>
+    <row r="190" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A190" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B190" s="9"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="9"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="13">
+      <c r="B190" s="8"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="12">
         <v>83.65</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="8"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
-      <c r="F191" s="9"/>
-    </row>
-    <row r="192" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="8"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="13"/>
+    <row r="191" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A191" s="7"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="H191" s="12"/>
+    </row>
+    <row r="192" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A192" s="7"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H134:H151"/>
-    <mergeCell ref="H155:H167"/>
-    <mergeCell ref="H168:H171"/>
-    <mergeCell ref="H172:H177"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="H101:H115"/>
-    <mergeCell ref="H116:H130"/>
-    <mergeCell ref="H131:H133"/>
-    <mergeCell ref="H87:H90"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="H13:H25"/>
-    <mergeCell ref="H26:H40"/>
-    <mergeCell ref="H41:H73"/>
-    <mergeCell ref="H74:H85"/>
+    <mergeCell ref="I134:I151"/>
+    <mergeCell ref="I155:I167"/>
+    <mergeCell ref="I168:I171"/>
+    <mergeCell ref="I172:I177"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="I94:I97"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="I101:I115"/>
+    <mergeCell ref="I116:I130"/>
+    <mergeCell ref="I131:I133"/>
+    <mergeCell ref="I87:I90"/>
+    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="I13:I25"/>
+    <mergeCell ref="I26:I40"/>
+    <mergeCell ref="I41:I73"/>
+    <mergeCell ref="I74:I85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H26" r:id="rId1" location="bib2001" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib2001" xr:uid="{7EE8B7B9-74BA-4E2F-B896-11D557649573}"/>
-    <hyperlink ref="H74" r:id="rId2" location="bib2002" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib2002" xr:uid="{78857FC3-B90A-41B3-AEC4-3FA02536E0CB}"/>
-    <hyperlink ref="H87" r:id="rId3" location="bib208" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib208" xr:uid="{62430C17-9798-4D41-B043-E2CE16D43AA8}"/>
-    <hyperlink ref="H93" r:id="rId4" location="bib208" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib208" xr:uid="{A4E48F35-BDA0-4DB2-A726-3608495D9F14}"/>
-    <hyperlink ref="H98" r:id="rId5" location="bib208" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib208" xr:uid="{7878CD80-52D1-48E5-A76D-955EFD44FED6}"/>
-    <hyperlink ref="H101" r:id="rId6" location="bib23" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib23" xr:uid="{CE0B259A-E7A6-4789-9D9E-9D0C0BA60777}"/>
-    <hyperlink ref="H131" r:id="rId7" location="bib365" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib365" xr:uid="{238F9134-6C91-42D7-8274-0B96D8C4ED83}"/>
-    <hyperlink ref="H134" r:id="rId8" location="bib365" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib365" xr:uid="{8FB81DAA-7463-4FDF-8032-28DEBC2AA63C}"/>
-    <hyperlink ref="H152" r:id="rId9" location="bib364" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib364" xr:uid="{DC8D5DDF-7007-493A-951F-C8EE00610D81}"/>
-    <hyperlink ref="H153" r:id="rId10" location="bib106" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib106" xr:uid="{E72ED9F9-7742-4E75-8E8D-1F7F45B87A01}"/>
-    <hyperlink ref="H154" r:id="rId11" location="bib364" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib364" xr:uid="{777D966D-8DAB-47E6-8059-29CDA29B83F2}"/>
-    <hyperlink ref="H155" r:id="rId12" location="bib127" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib127" xr:uid="{10DF577D-7917-4EF2-827F-30AF834BAC5A}"/>
-    <hyperlink ref="H168" r:id="rId13" location="bib152" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib152" xr:uid="{683667A1-9204-4E67-A393-5B6281C4B98A}"/>
-    <hyperlink ref="H172" r:id="rId14" location="bib109" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib109" xr:uid="{E37B3FFD-72DF-4A82-B415-4F68E4A4FDA9}"/>
+    <hyperlink ref="I172" r:id="rId1" location="bib109" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib109" xr:uid="{E37B3FFD-72DF-4A82-B415-4F68E4A4FDA9}"/>
+    <hyperlink ref="I168" r:id="rId2" location="bib152" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib152" xr:uid="{683667A1-9204-4E67-A393-5B6281C4B98A}"/>
+    <hyperlink ref="I155" r:id="rId3" location="bib127" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib127" xr:uid="{10DF577D-7917-4EF2-827F-30AF834BAC5A}"/>
+    <hyperlink ref="I154" r:id="rId4" location="bib364" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib364" xr:uid="{777D966D-8DAB-47E6-8059-29CDA29B83F2}"/>
+    <hyperlink ref="I153" r:id="rId5" location="bib106" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib106" xr:uid="{E72ED9F9-7742-4E75-8E8D-1F7F45B87A01}"/>
+    <hyperlink ref="I152" r:id="rId6" location="bib364" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib364" xr:uid="{DC8D5DDF-7007-493A-951F-C8EE00610D81}"/>
+    <hyperlink ref="I134" r:id="rId7" location="bib365" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib365" xr:uid="{8FB81DAA-7463-4FDF-8032-28DEBC2AA63C}"/>
+    <hyperlink ref="I131" r:id="rId8" location="bib365" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib365" xr:uid="{238F9134-6C91-42D7-8274-0B96D8C4ED83}"/>
+    <hyperlink ref="I101" r:id="rId9" location="bib23" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib23" xr:uid="{CE0B259A-E7A6-4789-9D9E-9D0C0BA60777}"/>
+    <hyperlink ref="I98" r:id="rId10" location="bib208" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib208" xr:uid="{7878CD80-52D1-48E5-A76D-955EFD44FED6}"/>
+    <hyperlink ref="I93" r:id="rId11" location="bib208" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib208" xr:uid="{A4E48F35-BDA0-4DB2-A726-3608495D9F14}"/>
+    <hyperlink ref="I87" r:id="rId12" location="bib208" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib208" xr:uid="{62430C17-9798-4D41-B043-E2CE16D43AA8}"/>
+    <hyperlink ref="I74" r:id="rId13" location="bib2002" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib2002" xr:uid="{78857FC3-B90A-41B3-AEC4-3FA02536E0CB}"/>
+    <hyperlink ref="I26" r:id="rId14" location="bib2001" display="https://www.sciencedirect.com/science/article/pii/B9780128243602000280 - bib2001" xr:uid="{7EE8B7B9-74BA-4E2F-B896-11D557649573}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5380,31 +5975,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB2BAD2-0D5B-4040-8739-C9469CC2BFA2}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="12.47265625" style="16" customWidth="1"/>
+    <col min="1" max="3" width="12.47265625" style="15" customWidth="1"/>
     <col min="4" max="4" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>238</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" s="19" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>264</v>
       </c>
@@ -5418,240 +6013,240 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:4">
+      <c r="B3" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
+    <row r="4" spans="1:4">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="1:4">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>2.58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="1:4">
+      <c r="C8" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:4">
+      <c r="B9" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>5.34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="1:4">
+      <c r="C10" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>7.2460000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="1:4">
+      <c r="C11" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>11.63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="1:4">
+      <c r="C12" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>13.82</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>15.99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="18" t="s">
+    <row r="14" spans="1:4">
+      <c r="C14" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>20.45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>23.04</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18" t="s">
+    <row r="16" spans="1:4">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>27.29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:4">
+      <c r="B17" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>33.9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
+    <row r="18" spans="1:4">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>37.71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18" t="s">
+    <row r="19" spans="1:4">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>41.03</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="1:4">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>48.07</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="1:4">
+      <c r="B21" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18" t="s">
+    <row r="22" spans="1:4">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>59.24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18" t="s">
+    <row r="23" spans="1:4">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>61.66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>66.040000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18" t="s">
+    <row r="25" spans="1:4">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>72.17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
+    <row r="26" spans="1:4">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>83.65</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
+    <row r="100" spans="1:3">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
